--- a/data/trans_orig/P1409-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1409-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19C7BA99-0D04-4FC9-8958-AFB24B64C688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87D5A498-1A59-49CF-BB48-46241BCEF866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{59E6BA7E-B571-4E7E-B9CE-FF296E0929C0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{89324795-33FE-4108-B0BE-5D00A09610BA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="218">
   <si>
     <t>Población con diagnóstico de asma en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -76,634 +76,622 @@
     <t>2,57%</t>
   </si>
   <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de asma en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
   </si>
   <si>
     <t>3,77%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
   </si>
   <si>
     <t>96,23%</t>
   </si>
   <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
   </si>
   <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
   </si>
   <si>
     <t>96,85%</t>
   </si>
   <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de asma en 2023 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
   </si>
   <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
   </si>
   <si>
     <t>96,5%</t>
   </si>
   <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de asma en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
   </si>
   <si>
     <t>96,93%</t>
   </si>
   <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de asma en 2023 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
     <t>95,0%</t>
   </si>
   <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
   </si>
   <si>
     <t>95,55%</t>
   </si>
   <si>
-    <t>94,76%</t>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234469A9-5B68-4DA3-857F-268C0EDE5021}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38CE724-ADEF-4B49-B3BB-809016A4E8CE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1472,7 +1460,7 @@
         <v>3419</v>
       </c>
       <c r="N8" s="7">
-        <v>3644863</v>
+        <v>3644862</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1523,7 +1511,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1740,7 +1728,7 @@
         <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1782,13 +1770,13 @@
         <v>6342</v>
       </c>
       <c r="N14" s="7">
-        <v>6808016</v>
+        <v>6808017</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>82</v>
@@ -1833,7 +1821,7 @@
         <v>6493</v>
       </c>
       <c r="N15" s="7">
-        <v>6969618</v>
+        <v>6969619</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1866,7 +1854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76400D71-BFF4-4E61-9E42-C91B9B7CE921}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2F33FC-19E3-4AD7-BE56-9A7B725DB916}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2020,13 +2008,13 @@
         <v>67964</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2041,13 +2029,13 @@
         <v>730806</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H5" s="7">
         <v>854</v>
@@ -2056,13 +2044,13 @@
         <v>950237</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M5" s="7">
         <v>1590</v>
@@ -2071,13 +2059,13 @@
         <v>1681043</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2145,13 +2133,13 @@
         <v>52956</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H7" s="7">
         <v>73</v>
@@ -2160,13 +2148,13 @@
         <v>75579</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M7" s="7">
         <v>123</v>
@@ -2175,13 +2163,13 @@
         <v>128535</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,13 +2184,13 @@
         <v>2023429</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H8" s="7">
         <v>1835</v>
@@ -2211,13 +2199,13 @@
         <v>1912721</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M8" s="7">
         <v>3737</v>
@@ -2226,10 +2214,10 @@
         <v>3936150</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>118</v>
@@ -2455,7 +2443,7 @@
         <v>86185</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>135</v>
@@ -2470,13 +2458,13 @@
         <v>140128</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M13" s="7">
         <v>215</v>
@@ -2485,13 +2473,13 @@
         <v>226313</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,13 +2494,13 @@
         <v>3291433</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H14" s="7">
         <v>3195</v>
@@ -2521,13 +2509,13 @@
         <v>3391972</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M14" s="7">
         <v>6326</v>
@@ -2536,13 +2524,13 @@
         <v>6683405</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,7 +2605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9551CE0E-8868-4FAC-8058-6CAE2EB3FD56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908435A7-E6D7-4EC4-AB4A-F84011675B4D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2634,7 +2622,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2741,13 +2729,13 @@
         <v>28578</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H4" s="7">
         <v>89</v>
@@ -2756,13 +2744,13 @@
         <v>51413</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M4" s="7">
         <v>124</v>
@@ -2771,13 +2759,13 @@
         <v>79992</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,28 +2780,28 @@
         <v>510669</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>1334</v>
       </c>
       <c r="I5" s="7">
-        <v>779871</v>
+        <v>779870</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>1988</v>
@@ -2822,13 +2810,13 @@
         <v>1290539</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,7 +2843,7 @@
         <v>1423</v>
       </c>
       <c r="I6" s="7">
-        <v>831284</v>
+        <v>831283</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2896,13 +2884,13 @@
         <v>76675</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H7" s="7">
         <v>129</v>
@@ -2911,13 +2899,13 @@
         <v>110283</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M7" s="7">
         <v>189</v>
@@ -2926,13 +2914,13 @@
         <v>186958</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,13 +2935,13 @@
         <v>2083563</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H8" s="7">
         <v>2789</v>
@@ -2962,13 +2950,13 @@
         <v>2137345</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M8" s="7">
         <v>4719</v>
@@ -2977,13 +2965,13 @@
         <v>4220908</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,13 +3039,13 @@
         <v>24138</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -3066,13 +3054,13 @@
         <v>27856</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M10" s="7">
         <v>72</v>
@@ -3081,13 +3069,13 @@
         <v>51994</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,13 +3090,13 @@
         <v>648901</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="H11" s="7">
         <v>953</v>
@@ -3117,13 +3105,13 @@
         <v>685394</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M11" s="7">
         <v>1611</v>
@@ -3132,13 +3120,13 @@
         <v>1334296</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,13 +3194,13 @@
         <v>129391</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H13" s="7">
         <v>267</v>
@@ -3221,13 +3209,13 @@
         <v>189553</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M13" s="7">
         <v>385</v>
@@ -3236,13 +3224,13 @@
         <v>318943</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,28 +3245,28 @@
         <v>3243134</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>5076</v>
       </c>
       <c r="I14" s="7">
-        <v>3602608</v>
+        <v>3602609</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>8318</v>
@@ -3287,13 +3275,13 @@
         <v>6845743</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,7 +3308,7 @@
         <v>5343</v>
       </c>
       <c r="I15" s="7">
-        <v>3792161</v>
+        <v>3792162</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P1409-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1409-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87D5A498-1A59-49CF-BB48-46241BCEF866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BE40B06-B18F-45A8-B71C-1E63829DCD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{89324795-33FE-4108-B0BE-5D00A09610BA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7B782090-EACA-497C-8E58-4448209EC23A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="208">
   <si>
     <t>Población con diagnóstico de asma en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -79,555 +79,531 @@
     <t>1,72%</t>
   </si>
   <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de asma en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
     <t>3,89%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,43%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
   </si>
   <si>
     <t>96,11%</t>
   </si>
   <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de asma en 2023 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
   </si>
   <si>
     <t>97,69%</t>
   </si>
   <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de asma en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de asma en 2023 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
     <t>96,09%</t>
   </si>
   <si>
@@ -635,12 +611,6 @@
   </si>
   <si>
     <t>97,19%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
   </si>
   <si>
     <t>97,13%</t>
@@ -1103,7 +1073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38CE724-ADEF-4B49-B3BB-809016A4E8CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE93A69D-25C3-4403-B1D9-BB286A0FD207}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1263,13 +1233,13 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>884</v>
@@ -1278,13 +1248,13 @@
         <v>949586</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>1208</v>
@@ -1293,28 +1263,28 @@
         <v>1294159</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>2092</v>
       </c>
       <c r="N5" s="7">
-        <v>2243745</v>
+        <v>2243744</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1329,13 +1299,13 @@
         <v>974643</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>1246</v>
@@ -1344,33 +1314,33 @@
         <v>1336614</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>2154</v>
       </c>
       <c r="N6" s="7">
-        <v>2311257</v>
+        <v>2311256</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1382,13 +1352,13 @@
         <v>32425</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -1397,13 +1367,13 @@
         <v>41262</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
         <v>70</v>
@@ -1412,19 +1382,19 @@
         <v>73687</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1824</v>
@@ -1433,13 +1403,13 @@
         <v>1931532</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>1595</v>
@@ -1448,28 +1418,28 @@
         <v>1713330</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="M8" s="7">
         <v>3419</v>
       </c>
       <c r="N8" s="7">
-        <v>3644862</v>
+        <v>3644863</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1484,13 +1454,13 @@
         <v>1963957</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>1633</v>
@@ -1499,33 +1469,33 @@
         <v>1754592</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718549</v>
+        <v>3718550</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1537,13 +1507,13 @@
         <v>7939</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -1552,13 +1522,13 @@
         <v>12463</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -1567,19 +1537,19 @@
         <v>20403</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>431</v>
@@ -1588,13 +1558,13 @@
         <v>473242</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H11" s="7">
         <v>400</v>
@@ -1603,13 +1573,13 @@
         <v>446168</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="M11" s="7">
         <v>831</v>
@@ -1618,13 +1588,13 @@
         <v>919409</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1639,13 +1609,13 @@
         <v>481181</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>412</v>
@@ -1654,13 +1624,13 @@
         <v>458631</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>850</v>
@@ -1669,13 +1639,13 @@
         <v>939812</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1692,13 +1662,13 @@
         <v>65421</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -1707,13 +1677,13 @@
         <v>96180</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>151</v>
@@ -1722,19 +1692,19 @@
         <v>161602</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>3139</v>
@@ -1743,13 +1713,13 @@
         <v>3354361</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>3203</v>
@@ -1758,28 +1728,28 @@
         <v>3453657</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>6342</v>
       </c>
       <c r="N14" s="7">
-        <v>6808017</v>
+        <v>6808016</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1794,13 +1764,13 @@
         <v>3419782</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>3291</v>
@@ -1809,33 +1779,33 @@
         <v>3549837</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>6493</v>
       </c>
       <c r="N15" s="7">
-        <v>6969619</v>
+        <v>6969618</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1854,7 +1824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2F33FC-19E3-4AD7-BE56-9A7B725DB916}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07307306-1E98-42FF-81F9-8008628853AA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1871,7 +1841,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1978,13 +1948,13 @@
         <v>23541</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
@@ -1993,13 +1963,13 @@
         <v>44423</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="M4" s="7">
         <v>64</v>
@@ -2008,19 +1978,19 @@
         <v>67964</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>736</v>
@@ -2029,13 +1999,13 @@
         <v>730806</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H5" s="7">
         <v>854</v>
@@ -2044,13 +2014,13 @@
         <v>950237</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>1590</v>
@@ -2059,13 +2029,13 @@
         <v>1681043</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,13 +2050,13 @@
         <v>754347</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>892</v>
@@ -2095,13 +2065,13 @@
         <v>994660</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>1654</v>
@@ -2110,18 +2080,18 @@
         <v>1749007</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2133,13 +2103,13 @@
         <v>52956</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H7" s="7">
         <v>73</v>
@@ -2148,13 +2118,13 @@
         <v>75579</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M7" s="7">
         <v>123</v>
@@ -2163,19 +2133,19 @@
         <v>128535</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1902</v>
@@ -2184,13 +2154,13 @@
         <v>2023429</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H8" s="7">
         <v>1835</v>
@@ -2199,13 +2169,13 @@
         <v>1912721</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M8" s="7">
         <v>3737</v>
@@ -2214,13 +2184,13 @@
         <v>3936150</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,13 +2205,13 @@
         <v>2076385</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>1908</v>
@@ -2250,13 +2220,13 @@
         <v>1988300</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>3860</v>
@@ -2265,18 +2235,18 @@
         <v>4064685</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2288,13 +2258,13 @@
         <v>9688</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -2303,13 +2273,13 @@
         <v>20126</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -2318,19 +2288,19 @@
         <v>29814</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>493</v>
@@ -2339,13 +2309,13 @@
         <v>537198</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H11" s="7">
         <v>506</v>
@@ -2354,13 +2324,13 @@
         <v>529014</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M11" s="7">
         <v>999</v>
@@ -2369,13 +2339,13 @@
         <v>1066212</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,13 +2360,13 @@
         <v>546886</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>526</v>
@@ -2405,13 +2375,13 @@
         <v>549140</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1027</v>
@@ -2420,13 +2390,13 @@
         <v>1096026</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,13 +2413,13 @@
         <v>86185</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H13" s="7">
         <v>131</v>
@@ -2458,13 +2428,13 @@
         <v>140128</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="M13" s="7">
         <v>215</v>
@@ -2473,19 +2443,19 @@
         <v>226313</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>3131</v>
@@ -2494,13 +2464,13 @@
         <v>3291433</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H14" s="7">
         <v>3195</v>
@@ -2509,13 +2479,13 @@
         <v>3391972</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M14" s="7">
         <v>6326</v>
@@ -2524,13 +2494,13 @@
         <v>6683405</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,13 +2515,13 @@
         <v>3377618</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>3326</v>
@@ -2560,13 +2530,13 @@
         <v>3532100</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>6541</v>
@@ -2575,18 +2545,18 @@
         <v>6909718</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2605,7 +2575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908435A7-E6D7-4EC4-AB4A-F84011675B4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850E0097-D58C-40C9-A0CE-A3E9234F7D16}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2622,7 +2592,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2729,13 +2699,13 @@
         <v>28578</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>89</v>
@@ -2744,13 +2714,13 @@
         <v>51413</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>124</v>
@@ -2759,19 +2729,19 @@
         <v>79992</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>654</v>
@@ -2780,13 +2750,13 @@
         <v>510669</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>1334</v>
@@ -2795,13 +2765,13 @@
         <v>779870</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>1988</v>
@@ -2810,13 +2780,13 @@
         <v>1290539</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,13 +2801,13 @@
         <v>539247</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>1423</v>
@@ -2846,13 +2816,13 @@
         <v>831283</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>2112</v>
@@ -2861,18 +2831,18 @@
         <v>1370531</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2884,13 +2854,13 @@
         <v>76675</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>169</v>
+        <v>69</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="H7" s="7">
         <v>129</v>
@@ -2899,13 +2869,13 @@
         <v>110283</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M7" s="7">
         <v>189</v>
@@ -2914,19 +2884,19 @@
         <v>186958</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1930</v>
@@ -2935,13 +2905,13 @@
         <v>2083563</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="H8" s="7">
         <v>2789</v>
@@ -2950,13 +2920,13 @@
         <v>2137345</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>4719</v>
@@ -2965,13 +2935,13 @@
         <v>4220908</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,13 +2956,13 @@
         <v>2160238</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>2918</v>
@@ -3001,13 +2971,13 @@
         <v>2247628</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>4908</v>
@@ -3016,18 +2986,18 @@
         <v>4407866</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3039,13 +3009,13 @@
         <v>24138</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -3054,13 +3024,13 @@
         <v>27856</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>72</v>
@@ -3069,19 +3039,19 @@
         <v>51994</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>193</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>658</v>
@@ -3090,13 +3060,13 @@
         <v>648901</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="H11" s="7">
         <v>953</v>
@@ -3105,13 +3075,13 @@
         <v>685394</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>1611</v>
@@ -3120,13 +3090,13 @@
         <v>1334296</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,13 +3111,13 @@
         <v>673039</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>1002</v>
@@ -3156,13 +3126,13 @@
         <v>713250</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1683</v>
@@ -3171,13 +3141,13 @@
         <v>1386290</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,13 +3164,13 @@
         <v>129391</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="H13" s="7">
         <v>267</v>
@@ -3209,13 +3179,13 @@
         <v>189553</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="M13" s="7">
         <v>385</v>
@@ -3224,19 +3194,19 @@
         <v>318943</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>3242</v>
@@ -3245,13 +3215,13 @@
         <v>3243134</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="H14" s="7">
         <v>5076</v>
@@ -3260,13 +3230,13 @@
         <v>3602609</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="M14" s="7">
         <v>8318</v>
@@ -3275,13 +3245,13 @@
         <v>6845743</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,13 +3266,13 @@
         <v>3372525</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>5343</v>
@@ -3311,13 +3281,13 @@
         <v>3792162</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>8703</v>
@@ -3326,18 +3296,18 @@
         <v>7164686</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1409-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1409-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BE40B06-B18F-45A8-B71C-1E63829DCD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4942A8C6-8E09-4D98-BE7A-BFBF399F54D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7B782090-EACA-497C-8E58-4448209EC23A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7EBB3AE0-A813-4811-9EC6-ED467CFB945B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="222">
   <si>
     <t>Población con diagnóstico de asma en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -70,94 +70,112 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
   </si>
   <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
+    <t>96,85%</t>
   </si>
   <si>
     <t>98,29%</t>
@@ -166,61 +184,61 @@
     <t>98,02%</t>
   </si>
   <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
   </si>
   <si>
     <t>2,17%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
   </si>
   <si>
     <t>97,28%</t>
   </si>
   <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
   </si>
   <si>
     <t>97,83%</t>
   </si>
   <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
   </si>
   <si>
     <t>1,91%</t>
@@ -229,31 +247,28 @@
     <t>1,49%</t>
   </si>
   <si>
-    <t>2,45%</t>
+    <t>2,42%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
   </si>
   <si>
     <t>2,32%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
+    <t>1,99%</t>
   </si>
   <si>
     <t>98,09%</t>
   </si>
   <si>
-    <t>97,55%</t>
+    <t>97,58%</t>
   </si>
   <si>
     <t>98,51%</t>
@@ -262,19 +277,16 @@
     <t>97,29%</t>
   </si>
   <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
   </si>
   <si>
     <t>97,68%</t>
   </si>
   <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
+    <t>98,01%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -289,379 +301,409 @@
     <t>2,07%</t>
   </si>
   <si>
-    <t>4,46%</t>
+    <t>4,49%</t>
   </si>
   <si>
     <t>4,47%</t>
   </si>
   <si>
-    <t>6,05%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
   </si>
   <si>
     <t>3,89%</t>
   </si>
   <si>
-    <t>2,94%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de asma en 2023 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
   </si>
   <si>
     <t>4,93%</t>
   </si>
   <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
   </si>
   <si>
     <t>95,07%</t>
   </si>
   <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
+    <t>5,33%</t>
+  </si>
+  <si>
     <t>3,75%</t>
   </si>
   <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
   </si>
   <si>
     <t>96,25%</t>
   </si>
   <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de asma en 2023 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
   </si>
   <si>
     <t>3,84%</t>
   </si>
   <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
   </si>
   <si>
     <t>96,16%</t>
   </si>
   <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
   </si>
   <si>
     <t>95,0%</t>
   </si>
   <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
   </si>
   <si>
     <t>95,55%</t>
   </si>
   <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
+    <t>94,76%</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE93A69D-25C3-4403-B1D9-BB286A0FD207}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D19541A-3924-4BE0-9073-0B3EB9637CFF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1233,13 +1275,13 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>884</v>
@@ -1248,13 +1290,13 @@
         <v>949586</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>1208</v>
@@ -1263,28 +1305,28 @@
         <v>1294159</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>2092</v>
       </c>
       <c r="N5" s="7">
-        <v>2243744</v>
+        <v>2243745</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1299,13 +1341,13 @@
         <v>974643</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>1246</v>
@@ -1314,33 +1356,33 @@
         <v>1336614</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>2154</v>
       </c>
       <c r="N6" s="7">
-        <v>2311256</v>
+        <v>2311257</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1352,13 +1394,13 @@
         <v>32425</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -1367,13 +1409,13 @@
         <v>41262</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>70</v>
@@ -1382,19 +1424,19 @@
         <v>73687</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>1824</v>
@@ -1403,13 +1445,13 @@
         <v>1931532</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1595</v>
@@ -1418,13 +1460,13 @@
         <v>1713330</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3419</v>
@@ -1433,13 +1475,13 @@
         <v>3644863</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1454,13 +1496,13 @@
         <v>1963957</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>1633</v>
@@ -1469,13 +1511,13 @@
         <v>1754592</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>3489</v>
@@ -1484,18 +1526,18 @@
         <v>3718550</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1507,13 +1549,13 @@
         <v>7939</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -1522,13 +1564,13 @@
         <v>12463</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -1537,19 +1579,19 @@
         <v>20403</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>431</v>
@@ -1558,13 +1600,13 @@
         <v>473242</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>400</v>
@@ -1573,13 +1615,13 @@
         <v>446168</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>831</v>
@@ -1588,13 +1630,13 @@
         <v>919409</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1609,13 +1651,13 @@
         <v>481181</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>412</v>
@@ -1624,13 +1666,13 @@
         <v>458631</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>850</v>
@@ -1639,13 +1681,13 @@
         <v>939812</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1662,13 +1704,13 @@
         <v>65421</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -1677,13 +1719,13 @@
         <v>96180</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>151</v>
@@ -1692,19 +1734,19 @@
         <v>161602</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>3139</v>
@@ -1713,13 +1755,13 @@
         <v>3354361</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>3203</v>
@@ -1728,13 +1770,13 @@
         <v>3453657</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>6342</v>
@@ -1743,13 +1785,13 @@
         <v>6808016</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1764,13 +1806,13 @@
         <v>3419782</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>3291</v>
@@ -1779,13 +1821,13 @@
         <v>3549837</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>6493</v>
@@ -1794,18 +1836,18 @@
         <v>6969618</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1824,7 +1866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07307306-1E98-42FF-81F9-8008628853AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C5F481-2681-4E6C-9DCC-97A9301519E3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1841,7 +1883,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1948,13 +1990,13 @@
         <v>23541</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
@@ -1963,13 +2005,13 @@
         <v>44423</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M4" s="7">
         <v>64</v>
@@ -1978,19 +2020,19 @@
         <v>67964</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>736</v>
@@ -1999,13 +2041,13 @@
         <v>730806</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H5" s="7">
         <v>854</v>
@@ -2014,13 +2056,13 @@
         <v>950237</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="M5" s="7">
         <v>1590</v>
@@ -2029,13 +2071,13 @@
         <v>1681043</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2050,13 +2092,13 @@
         <v>754347</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>892</v>
@@ -2065,13 +2107,13 @@
         <v>994660</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>1654</v>
@@ -2080,18 +2122,18 @@
         <v>1749007</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2103,13 +2145,13 @@
         <v>52956</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H7" s="7">
         <v>73</v>
@@ -2118,13 +2160,13 @@
         <v>75579</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M7" s="7">
         <v>123</v>
@@ -2133,19 +2175,19 @@
         <v>128535</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>1902</v>
@@ -2154,13 +2196,13 @@
         <v>2023429</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H8" s="7">
         <v>1835</v>
@@ -2169,13 +2211,13 @@
         <v>1912721</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="M8" s="7">
         <v>3737</v>
@@ -2184,13 +2226,13 @@
         <v>3936150</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2205,13 +2247,13 @@
         <v>2076385</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>1908</v>
@@ -2220,13 +2262,13 @@
         <v>1988300</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>3860</v>
@@ -2235,18 +2277,18 @@
         <v>4064685</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2258,13 +2300,13 @@
         <v>9688</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -2273,13 +2315,13 @@
         <v>20126</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -2288,19 +2330,19 @@
         <v>29814</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>493</v>
@@ -2309,13 +2351,13 @@
         <v>537198</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H11" s="7">
         <v>506</v>
@@ -2324,13 +2366,13 @@
         <v>529014</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M11" s="7">
         <v>999</v>
@@ -2339,13 +2381,13 @@
         <v>1066212</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,13 +2402,13 @@
         <v>546886</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>526</v>
@@ -2375,13 +2417,13 @@
         <v>549140</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1027</v>
@@ -2390,13 +2432,13 @@
         <v>1096026</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2413,13 +2455,13 @@
         <v>86185</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H13" s="7">
         <v>131</v>
@@ -2428,13 +2470,13 @@
         <v>140128</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M13" s="7">
         <v>215</v>
@@ -2443,19 +2485,19 @@
         <v>226313</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>3131</v>
@@ -2464,13 +2506,13 @@
         <v>3291433</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H14" s="7">
         <v>3195</v>
@@ -2479,13 +2521,13 @@
         <v>3391972</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M14" s="7">
         <v>6326</v>
@@ -2494,13 +2536,13 @@
         <v>6683405</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,13 +2557,13 @@
         <v>3377618</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>3326</v>
@@ -2530,13 +2572,13 @@
         <v>3532100</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>6541</v>
@@ -2545,18 +2587,18 @@
         <v>6909718</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2575,7 +2617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850E0097-D58C-40C9-A0CE-A3E9234F7D16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E75A70B-FA4C-4B2F-8107-F0ED7BBBFB87}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2592,7 +2634,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2699,13 +2741,13 @@
         <v>28578</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H4" s="7">
         <v>89</v>
@@ -2714,13 +2756,13 @@
         <v>51413</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M4" s="7">
         <v>124</v>
@@ -2729,19 +2771,19 @@
         <v>79992</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>654</v>
@@ -2750,28 +2792,28 @@
         <v>510669</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>1334</v>
       </c>
       <c r="I5" s="7">
-        <v>779870</v>
+        <v>779871</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>1988</v>
@@ -2780,13 +2822,13 @@
         <v>1290539</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,28 +2843,28 @@
         <v>539247</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>1423</v>
       </c>
       <c r="I6" s="7">
-        <v>831283</v>
+        <v>831284</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>2112</v>
@@ -2831,18 +2873,18 @@
         <v>1370531</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2854,13 +2896,13 @@
         <v>76675</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="H7" s="7">
         <v>129</v>
@@ -2869,13 +2911,13 @@
         <v>110283</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="M7" s="7">
         <v>189</v>
@@ -2884,19 +2926,19 @@
         <v>186958</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>1930</v>
@@ -2905,13 +2947,13 @@
         <v>2083563</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="H8" s="7">
         <v>2789</v>
@@ -2920,13 +2962,13 @@
         <v>2137345</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="M8" s="7">
         <v>4719</v>
@@ -2935,13 +2977,13 @@
         <v>4220908</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,13 +2998,13 @@
         <v>2160238</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>2918</v>
@@ -2971,13 +3013,13 @@
         <v>2247628</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>4908</v>
@@ -2986,18 +3028,18 @@
         <v>4407866</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3009,13 +3051,13 @@
         <v>24138</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -3024,13 +3066,13 @@
         <v>27856</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>72</v>
@@ -3039,19 +3081,19 @@
         <v>51994</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>658</v>
@@ -3060,13 +3102,13 @@
         <v>648901</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="H11" s="7">
         <v>953</v>
@@ -3075,13 +3117,13 @@
         <v>685394</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="M11" s="7">
         <v>1611</v>
@@ -3090,13 +3132,13 @@
         <v>1334296</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3153,13 @@
         <v>673039</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>1002</v>
@@ -3126,13 +3168,13 @@
         <v>713250</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1683</v>
@@ -3141,13 +3183,13 @@
         <v>1386290</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,13 +3206,13 @@
         <v>129391</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>267</v>
@@ -3179,13 +3221,13 @@
         <v>189553</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>385</v>
@@ -3194,19 +3236,19 @@
         <v>318943</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>3242</v>
@@ -3215,28 +3257,28 @@
         <v>3243134</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="H14" s="7">
         <v>5076</v>
       </c>
       <c r="I14" s="7">
-        <v>3602609</v>
+        <v>3602608</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="M14" s="7">
         <v>8318</v>
@@ -3245,13 +3287,13 @@
         <v>6845743</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,28 +3308,28 @@
         <v>3372525</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>5343</v>
       </c>
       <c r="I15" s="7">
-        <v>3792162</v>
+        <v>3792161</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>8703</v>
@@ -3296,18 +3338,18 @@
         <v>7164686</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1409-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1409-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4942A8C6-8E09-4D98-BE7A-BFBF399F54D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CCBD4FA-DB4D-45C2-8A00-1590398C5321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7EBB3AE0-A813-4811-9EC6-ED467CFB945B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{76E24D91-46C4-4F72-B004-79613B9623B1}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="212">
   <si>
     <t>Población con diagnóstico de asma en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -496,214 +496,184 @@
     <t>Población con diagnóstico de asma en 2023 (Tasa respuesta: 99,81%)</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
   </si>
   <si>
     <t>4,91%</t>
   </si>
   <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
   </si>
   <si>
     <t>96,15%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D19541A-3924-4BE0-9073-0B3EB9637CFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7280034-4418-4850-B794-7D8A0002B546}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1472,7 +1442,7 @@
         <v>3419</v>
       </c>
       <c r="N8" s="7">
-        <v>3644863</v>
+        <v>3644862</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1523,7 +1493,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1627,7 +1597,7 @@
         <v>831</v>
       </c>
       <c r="N11" s="7">
-        <v>919409</v>
+        <v>919410</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>64</v>
@@ -1678,7 +1648,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1782,7 +1752,7 @@
         <v>6342</v>
       </c>
       <c r="N14" s="7">
-        <v>6808016</v>
+        <v>6808017</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>81</v>
@@ -1833,7 +1803,7 @@
         <v>6493</v>
       </c>
       <c r="N15" s="7">
-        <v>6969618</v>
+        <v>6969619</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1866,7 +1836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C5F481-2681-4E6C-9DCC-97A9301519E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5544D0BA-8F2D-4F38-BB73-3A57E2C56C06}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2378,7 +2348,7 @@
         <v>999</v>
       </c>
       <c r="N11" s="7">
-        <v>1066212</v>
+        <v>1066213</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>61</v>
@@ -2429,7 +2399,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2617,7 +2587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E75A70B-FA4C-4B2F-8107-F0ED7BBBFB87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0702129B-2640-4EEB-B5A3-CA8A0E3010E2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2738,7 +2708,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="7">
-        <v>28578</v>
+        <v>26897</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>152</v>
@@ -2753,7 +2723,7 @@
         <v>89</v>
       </c>
       <c r="I4" s="7">
-        <v>51413</v>
+        <v>46765</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>155</v>
@@ -2768,7 +2738,7 @@
         <v>124</v>
       </c>
       <c r="N4" s="7">
-        <v>79992</v>
+        <v>73662</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>158</v>
@@ -2789,7 +2759,7 @@
         <v>654</v>
       </c>
       <c r="D5" s="7">
-        <v>510669</v>
+        <v>485723</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>161</v>
@@ -2804,7 +2774,7 @@
         <v>1334</v>
       </c>
       <c r="I5" s="7">
-        <v>779871</v>
+        <v>704666</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>164</v>
@@ -2819,7 +2789,7 @@
         <v>1988</v>
       </c>
       <c r="N5" s="7">
-        <v>1290539</v>
+        <v>1190390</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>167</v>
@@ -2840,7 +2810,7 @@
         <v>689</v>
       </c>
       <c r="D6" s="7">
-        <v>539247</v>
+        <v>512620</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2855,7 +2825,7 @@
         <v>1423</v>
       </c>
       <c r="I6" s="7">
-        <v>831284</v>
+        <v>751431</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2870,7 +2840,7 @@
         <v>2112</v>
       </c>
       <c r="N6" s="7">
-        <v>1370531</v>
+        <v>1264052</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2893,46 +2863,46 @@
         <v>60</v>
       </c>
       <c r="D7" s="7">
-        <v>76675</v>
+        <v>76587</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H7" s="7">
         <v>129</v>
       </c>
       <c r="I7" s="7">
-        <v>110283</v>
+        <v>156417</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M7" s="7">
         <v>189</v>
       </c>
       <c r="N7" s="7">
-        <v>186958</v>
+        <v>233005</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,46 +2914,46 @@
         <v>1930</v>
       </c>
       <c r="D8" s="7">
-        <v>2083563</v>
+        <v>2212088</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H8" s="7">
         <v>2789</v>
       </c>
       <c r="I8" s="7">
-        <v>2137345</v>
+        <v>2079660</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="M8" s="7">
         <v>4719</v>
       </c>
       <c r="N8" s="7">
-        <v>4220908</v>
+        <v>4291748</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,7 +2965,7 @@
         <v>1990</v>
       </c>
       <c r="D9" s="7">
-        <v>2160238</v>
+        <v>2288675</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3010,7 +2980,7 @@
         <v>2918</v>
       </c>
       <c r="I9" s="7">
-        <v>2247628</v>
+        <v>2236077</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3025,7 +2995,7 @@
         <v>4908</v>
       </c>
       <c r="N9" s="7">
-        <v>4407866</v>
+        <v>4524753</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3048,46 +3018,46 @@
         <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>24138</v>
+        <v>23215</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
       </c>
       <c r="I10" s="7">
-        <v>27856</v>
+        <v>26165</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M10" s="7">
         <v>72</v>
       </c>
       <c r="N10" s="7">
-        <v>51994</v>
+        <v>49380</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,46 +3069,46 @@
         <v>658</v>
       </c>
       <c r="D11" s="7">
-        <v>648901</v>
+        <v>623408</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>953</v>
       </c>
       <c r="I11" s="7">
-        <v>685394</v>
+        <v>633705</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="M11" s="7">
         <v>1611</v>
       </c>
       <c r="N11" s="7">
-        <v>1334296</v>
+        <v>1257114</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>205</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,7 +3120,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3165,7 +3135,7 @@
         <v>1002</v>
       </c>
       <c r="I12" s="7">
-        <v>713250</v>
+        <v>659870</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3180,7 +3150,7 @@
         <v>1683</v>
       </c>
       <c r="N12" s="7">
-        <v>1386290</v>
+        <v>1306494</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3203,46 +3173,46 @@
         <v>118</v>
       </c>
       <c r="D13" s="7">
-        <v>129391</v>
+        <v>126700</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>122</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="H13" s="7">
         <v>267</v>
       </c>
       <c r="I13" s="7">
-        <v>189553</v>
+        <v>229348</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="M13" s="7">
         <v>385</v>
       </c>
       <c r="N13" s="7">
-        <v>318943</v>
+        <v>356047</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>156</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,46 +3224,46 @@
         <v>3242</v>
       </c>
       <c r="D14" s="7">
-        <v>3243134</v>
+        <v>3321219</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>214</v>
+        <v>130</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="H14" s="7">
         <v>5076</v>
       </c>
       <c r="I14" s="7">
-        <v>3602608</v>
+        <v>3418031</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="M14" s="7">
         <v>8318</v>
       </c>
       <c r="N14" s="7">
-        <v>6845743</v>
+        <v>6739251</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,7 +3275,7 @@
         <v>3360</v>
       </c>
       <c r="D15" s="7">
-        <v>3372525</v>
+        <v>3447919</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3320,7 +3290,7 @@
         <v>5343</v>
       </c>
       <c r="I15" s="7">
-        <v>3792161</v>
+        <v>3647379</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3335,7 +3305,7 @@
         <v>8703</v>
       </c>
       <c r="N15" s="7">
-        <v>7164686</v>
+        <v>7095298</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
